--- a/p1/round2/statics.xlsx
+++ b/p1/round2/statics.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="29005"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yufeng/Downloads/aiingstan-mldn1-198ae72/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yufeng/git/mldn1/p1/round2/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1A25CD5A-9917-174B-A1BE-F0F84661A007}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="460" windowWidth="25120" windowHeight="13780" activeTab="2"/>
+    <workbookView xWindow="720" yWindow="480" windowWidth="21720" windowHeight="14780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="histogram" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="histogram" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
   <si>
     <t>Congruent</t>
   </si>
@@ -164,12 +166,27 @@
   <si>
     <t>Time</t>
   </si>
+  <si>
+    <t>差异的标准偏差</t>
+  </si>
+  <si>
+    <t>Mdiff</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -838,9 +855,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -854,6 +868,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -911,12 +928,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -961,43 +981,43 @@
                   <c:v>-3.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3.0</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>-2.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.0</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>-1.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>-0.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>3.5</c:v>
@@ -1012,53 +1032,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-27E1-9E44-967A-C5809BB2294E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1085,43 +1110,43 @@
                   <c:v>-3.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3.0</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>-2.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.0</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>-1.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>-0.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>3.5</c:v>
@@ -1136,53 +1161,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-27E1-9E44-967A-C5809BB2294E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1233,7 +1263,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1249,7 +1278,507 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>两种条件下的时间值</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Congruent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>12.079000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.791</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.5640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.669</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.238</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.692</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.9870000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.4009999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.48</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.327999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.298</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.073</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.928999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.13</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18.495000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.638999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.343999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12.369</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12.944000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.233000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19.71</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16.004000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9F1D-0740-A466-E370D3380F39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Incongruent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>19.277999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.741</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.213999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.686999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.803000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.878</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.571999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.393999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.762</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.282</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.524000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.643999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.510000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20.329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35.255000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22.158000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25.138999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.428999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17.425000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34.287999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23.893999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17.96</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.058</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>21.157</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9F1D-0740-A466-E370D3380F39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1688683695"/>
+        <c:axId val="1687028559"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1688683695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1687028559"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1687028559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1688683695"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1288,7 +1817,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1386,38 +1914,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E780-734E-AA8A-F2147FDA27F4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1465,7 +1998,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1572,7 +2104,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1602,6 +2133,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1646,7 +2178,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1713,8 +2244,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1753,7 +2284,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1860,47 +2390,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-697A-4940-A29E-96D72784FCFD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1948,7 +2483,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2055,7 +2589,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2085,6 +2618,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2129,7 +2663,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2276,6 +2809,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2780,6 +3353,509 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3299,7 +4375,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3309,6 +4391,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B10B9111-D52E-2F41-8251-18D5785A30E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3334,7 +4452,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3364,7 +4488,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3668,14 +4798,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B2:B25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="2"/>
     <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
@@ -3689,7 +4819,7 @@
     <col min="12" max="12" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:12">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3718,11 +4848,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="2">
+    <row r="2" spans="2:12">
+      <c r="B2" s="3">
         <v>12.079000000000001</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>19.277999999999999</v>
       </c>
       <c r="D2">
@@ -3752,11 +4882,11 @@
         <v>15.686999999999999</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="2">
+    <row r="3" spans="2:12">
+      <c r="B3" s="3">
         <v>16.791</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>18.741</v>
       </c>
       <c r="D3" s="2">
@@ -3786,11 +4916,11 @@
         <v>17.393999999999998</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="2">
+    <row r="4" spans="2:12">
+      <c r="B4" s="3">
         <v>9.5640000000000001</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>21.213999999999999</v>
       </c>
       <c r="D4" s="2">
@@ -3820,11 +4950,11 @@
         <v>20.762</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="2">
+    <row r="5" spans="2:12">
+      <c r="B5" s="3">
         <v>8.6300000000000008</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>15.686999999999999</v>
       </c>
       <c r="D5" s="2">
@@ -3854,11 +4984,11 @@
         <v>21.213999999999999</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B6" s="2">
+    <row r="6" spans="2:12">
+      <c r="B6" s="3">
         <v>14.669</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>22.803000000000001</v>
       </c>
       <c r="D6" s="2">
@@ -3888,11 +5018,11 @@
         <v>20.428999999999998</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B7" s="2">
+    <row r="7" spans="2:12">
+      <c r="B7" s="3">
         <v>12.238</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>20.878</v>
       </c>
       <c r="D7" s="2">
@@ -3915,7 +5045,7 @@
         <f t="shared" si="4"/>
         <v>1.2948543402777835</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="10" t="s">
         <v>19</v>
       </c>
       <c r="K7" s="4">
@@ -3925,11 +5055,11 @@
         <v>17.425000000000001</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B8" s="2">
+    <row r="8" spans="2:12">
+      <c r="B8" s="3">
         <v>14.692</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>24.571999999999999</v>
       </c>
       <c r="D8" s="2">
@@ -3952,7 +5082,7 @@
         <f t="shared" si="4"/>
         <v>6.5335620069444271</v>
       </c>
-      <c r="J8" s="5"/>
+      <c r="J8" s="10"/>
       <c r="K8">
         <v>12.079000000000001</v>
       </c>
@@ -3960,11 +5090,11 @@
         <v>19.277999999999999</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B9" s="2">
+    <row r="9" spans="2:12">
+      <c r="B9" s="3">
         <v>8.9870000000000001</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>17.393999999999998</v>
       </c>
       <c r="D9" s="2">
@@ -3994,11 +5124,11 @@
         <v>22.158000000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B10" s="2">
+    <row r="10" spans="2:12">
+      <c r="B10" s="3">
         <v>9.4009999999999998</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>20.762</v>
       </c>
       <c r="D10" s="2">
@@ -4028,11 +5158,11 @@
         <v>20.878</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B11" s="2">
+    <row r="11" spans="2:12">
+      <c r="B11" s="3">
         <v>14.48</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>26.282</v>
       </c>
       <c r="D11" s="2">
@@ -4062,11 +5192,11 @@
         <v>34.287999999999997</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B12" s="2">
+    <row r="12" spans="2:12">
+      <c r="B12" s="3">
         <v>22.327999999999999</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="3">
         <v>24.524000000000001</v>
       </c>
       <c r="D12" s="2">
@@ -4096,11 +5226,11 @@
         <v>23.893999999999998</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B13" s="2">
+    <row r="13" spans="2:12">
+      <c r="B13" s="3">
         <v>15.298</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="3">
         <v>18.643999999999998</v>
       </c>
       <c r="D13" s="2">
@@ -4123,7 +5253,7 @@
         <f t="shared" si="4"/>
         <v>11.369822006944473</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="10" t="s">
         <v>18</v>
       </c>
       <c r="K13" s="4">
@@ -4133,11 +5263,11 @@
         <v>17.96</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B14" s="2">
+    <row r="14" spans="2:12">
+      <c r="B14" s="3">
         <v>15.073</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="3">
         <v>17.510000000000002</v>
       </c>
       <c r="D14" s="2">
@@ -4160,7 +5290,7 @@
         <f t="shared" si="4"/>
         <v>20.303285006944453</v>
       </c>
-      <c r="J14" s="5"/>
+      <c r="J14" s="10"/>
       <c r="K14">
         <v>14.48</v>
       </c>
@@ -4168,11 +5298,11 @@
         <v>26.282</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B15" s="2">
+    <row r="15" spans="2:12">
+      <c r="B15" s="3">
         <v>16.928999999999998</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="3">
         <v>20.329999999999998</v>
       </c>
       <c r="D15" s="2">
@@ -4202,11 +5332,11 @@
         <v>22.803000000000001</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B16" s="2">
+    <row r="16" spans="2:12">
+      <c r="B16" s="3">
         <v>18.2</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="3">
         <v>35.255000000000003</v>
       </c>
       <c r="D16" s="2">
@@ -4236,11 +5366,11 @@
         <v>24.571999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B17" s="2">
+    <row r="17" spans="1:12">
+      <c r="B17" s="3">
         <v>12.13</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="3">
         <v>22.158000000000001</v>
       </c>
       <c r="D17" s="2">
@@ -4270,11 +5400,11 @@
         <v>17.510000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B18" s="2">
+    <row r="18" spans="1:12">
+      <c r="B18" s="3">
         <v>18.495000000000001</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="3">
         <v>25.138999999999999</v>
       </c>
       <c r="D18" s="2">
@@ -4304,11 +5434,11 @@
         <v>18.643999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B19" s="2">
+    <row r="19" spans="1:12">
+      <c r="B19" s="3">
         <v>10.638999999999999</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="3">
         <v>20.428999999999998</v>
       </c>
       <c r="D19" s="2">
@@ -4331,7 +5461,7 @@
         <f t="shared" si="4"/>
         <v>2.5183045069444576</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="10" t="s">
         <v>20</v>
       </c>
       <c r="K19" s="4">
@@ -4341,11 +5471,11 @@
         <v>21.157</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B20" s="2">
+    <row r="20" spans="1:12">
+      <c r="B20" s="3">
         <v>11.343999999999999</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="3">
         <v>17.425000000000001</v>
       </c>
       <c r="D20" s="2">
@@ -4368,7 +5498,7 @@
         <f t="shared" si="4"/>
         <v>21.076515840277796</v>
       </c>
-      <c r="J20" s="5"/>
+      <c r="J20" s="10"/>
       <c r="K20">
         <v>16.791</v>
       </c>
@@ -4376,11 +5506,11 @@
         <v>18.741</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B21" s="2">
+    <row r="21" spans="1:12">
+      <c r="B21" s="3">
         <v>12.369</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="3">
         <v>34.287999999999997</v>
       </c>
       <c r="D21" s="2">
@@ -4410,11 +5540,11 @@
         <v>20.329999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B22" s="2">
+    <row r="22" spans="1:12">
+      <c r="B22" s="3">
         <v>12.944000000000001</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="3">
         <v>23.893999999999998</v>
       </c>
       <c r="D22" s="2">
@@ -4444,11 +5574,11 @@
         <v>35.255000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B23" s="2">
+    <row r="23" spans="1:12">
+      <c r="B23" s="3">
         <v>14.233000000000001</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="3">
         <v>17.96</v>
       </c>
       <c r="D23" s="2">
@@ -4478,11 +5608,11 @@
         <v>25.138999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B24" s="2">
+    <row r="24" spans="1:12">
+      <c r="B24" s="3">
         <v>19.71</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="3">
         <v>22.058</v>
       </c>
       <c r="D24" s="2">
@@ -4512,11 +5642,11 @@
         <v>22.058</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B25" s="2">
+    <row r="25" spans="1:12">
+      <c r="B25" s="3">
         <v>16.004000000000001</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="3">
         <v>21.157</v>
       </c>
       <c r="D25" s="2">
@@ -4546,7 +5676,7 @@
         <v>24.524000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12">
       <c r="A26" s="2" t="s">
         <v>2</v>
       </c>
@@ -4566,7 +5696,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12">
       <c r="A27" s="2" t="s">
         <v>3</v>
       </c>
@@ -4596,7 +5726,7 @@
         <v>18.351500000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12">
       <c r="A28" s="1"/>
       <c r="B28">
         <f>_xlfn.VAR.S(B2:B25)</f>
@@ -4626,7 +5756,7 @@
         <v>19.948999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12">
       <c r="A29" s="2" t="s">
         <v>9</v>
       </c>
@@ -4653,7 +5783,7 @@
         <v>1.5974999999999966</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12">
       <c r="B30">
         <f>_xlfn.STDEV.S(B2:B25)</f>
         <v>3.559357957645187</v>
@@ -4678,7 +5808,7 @@
         <v>15.955250000000007</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12">
       <c r="G31" t="s">
         <v>27</v>
       </c>
@@ -4694,7 +5824,7 @@
         <v>22.345249999999993</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12">
       <c r="A32" s="2" t="s">
         <v>10</v>
       </c>
@@ -4709,18 +5839,18 @@
         <v>4.2237889451820427</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7">
       <c r="G33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7">
       <c r="G34">
-        <f>(C26-B26)/G32</f>
-        <v>1.8856983078550558</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+        <f>(SUM(D2:D25)/24*SQRT(24))/_xlfn.STDEV.S(D2:D25)</f>
+        <v>8.0207069441099534</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
         <v>11</v>
       </c>
@@ -4734,6 +5864,43 @@
       <c r="E35">
         <f>POWER(D35,2)/(POWER(D35,2)+46)</f>
         <v>0.59799340681221491</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="C38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38">
+        <f>_xlfn.STDEV.S(D2:D25)</f>
+        <v>4.8648269103590565</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="G39">
+        <f>B26-8.02</f>
+        <v>6.0311250000000012</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="G40">
+        <f>B26+8.02</f>
+        <v>22.071125000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="E42">
+        <f>B26-D43</f>
+        <v>6.0870353490777083</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="D43">
+        <f>_xlfn.STDEV.S(D2:D25)/SQRT(24)*8.02</f>
+        <v>7.9640896509222925</v>
+      </c>
+      <c r="E43">
+        <f>B26+D43</f>
+        <v>22.015214650922292</v>
       </c>
     </row>
   </sheetData>
@@ -4752,14 +5919,62 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAD1965-6668-584C-B744-98D927C17078}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1">
+        <v>-7.97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2">
+        <v>4.8600000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <f>B1*SQRT(B3)/B2</f>
+        <v>-8.0339231481407101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C29"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
@@ -4771,24 +5986,24 @@
     <col min="10" max="10" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="10"/>
       <c r="I1" t="s">
         <v>14</v>
       </c>
@@ -4796,11 +6011,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2">
+    <row r="2" spans="1:11">
+      <c r="A2" s="3">
         <v>12.079000000000001</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>19.277999999999999</v>
       </c>
       <c r="C2">
@@ -4819,11 +6034,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3">
+    <row r="3" spans="1:11">
+      <c r="A3" s="3">
         <v>16.791</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>18.741</v>
       </c>
       <c r="C3">
@@ -4857,11 +6072,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4">
+    <row r="4" spans="1:11">
+      <c r="A4" s="3">
         <v>9.5640000000000001</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>21.213999999999999</v>
       </c>
       <c r="C4" s="2">
@@ -4895,11 +6110,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5">
+    <row r="5" spans="1:11">
+      <c r="A5" s="3">
         <v>8.6300000000000008</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>15.686999999999999</v>
       </c>
       <c r="C5" s="2">
@@ -4933,11 +6148,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6">
+    <row r="6" spans="1:11">
+      <c r="A6" s="3">
         <v>14.669</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>22.803000000000001</v>
       </c>
       <c r="C6" s="2">
@@ -4971,11 +6186,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7">
+    <row r="7" spans="1:11">
+      <c r="A7" s="3">
         <v>12.238</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>20.878</v>
       </c>
       <c r="C7" s="2">
@@ -5009,11 +6224,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8">
+    <row r="8" spans="1:11">
+      <c r="A8" s="3">
         <v>14.692</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>24.571999999999999</v>
       </c>
       <c r="C8" s="2">
@@ -5047,11 +6262,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9">
+    <row r="9" spans="1:11">
+      <c r="A9" s="3">
         <v>8.9870000000000001</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>17.393999999999998</v>
       </c>
       <c r="C9" s="2">
@@ -5085,11 +6300,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10">
+    <row r="10" spans="1:11">
+      <c r="A10" s="3">
         <v>9.4009999999999998</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>20.762</v>
       </c>
       <c r="D10" s="2">
@@ -5120,11 +6335,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11">
+    <row r="11" spans="1:11">
+      <c r="A11" s="3">
         <v>14.48</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>26.282</v>
       </c>
       <c r="D11" s="2">
@@ -5155,11 +6370,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12">
+    <row r="12" spans="1:11">
+      <c r="A12" s="3">
         <v>22.327999999999999</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>24.524000000000001</v>
       </c>
       <c r="D12" s="2">
@@ -5191,11 +6406,11 @@
       </c>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13">
+    <row r="13" spans="1:11">
+      <c r="A13" s="3">
         <v>15.298</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>18.643999999999998</v>
       </c>
       <c r="D13" s="2">
@@ -5227,11 +6442,11 @@
       </c>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14">
+    <row r="14" spans="1:11">
+      <c r="A14" s="3">
         <v>15.073</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>17.510000000000002</v>
       </c>
       <c r="D14" s="2">
@@ -5263,11 +6478,11 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15">
+    <row r="15" spans="1:11">
+      <c r="A15" s="3">
         <v>16.928999999999998</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>20.329999999999998</v>
       </c>
       <c r="D15" s="2">
@@ -5299,11 +6514,11 @@
       </c>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16">
+    <row r="16" spans="1:11">
+      <c r="A16" s="3">
         <v>18.2</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <v>35.255000000000003</v>
       </c>
       <c r="D16" s="2">
@@ -5335,11 +6550,11 @@
       </c>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17">
+    <row r="17" spans="1:11">
+      <c r="A17" s="3">
         <v>12.13</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>22.158000000000001</v>
       </c>
       <c r="D17" s="2">
@@ -5371,11 +6586,11 @@
       </c>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A18">
+    <row r="18" spans="1:11">
+      <c r="A18" s="3">
         <v>18.495000000000001</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
         <v>25.138999999999999</v>
       </c>
       <c r="D18" s="2"/>
@@ -5387,11 +6602,11 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A19">
+    <row r="19" spans="1:11">
+      <c r="A19" s="3">
         <v>10.638999999999999</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="3">
         <v>20.428999999999998</v>
       </c>
       <c r="D19" s="2"/>
@@ -5403,11 +6618,11 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A20">
+    <row r="20" spans="1:11">
+      <c r="A20" s="3">
         <v>11.343999999999999</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="3">
         <v>17.425000000000001</v>
       </c>
       <c r="D20" s="2"/>
@@ -5419,11 +6634,11 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A21">
+    <row r="21" spans="1:11">
+      <c r="A21" s="3">
         <v>12.369</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="3">
         <v>34.287999999999997</v>
       </c>
       <c r="D21" s="2"/>
@@ -5435,11 +6650,11 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A22">
+    <row r="22" spans="1:11">
+      <c r="A22" s="3">
         <v>12.944000000000001</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="3">
         <v>23.893999999999998</v>
       </c>
       <c r="D22" s="2"/>
@@ -5451,27 +6666,27 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A23">
+    <row r="23" spans="1:11">
+      <c r="A23" s="3">
         <v>14.233000000000001</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="3">
         <v>17.96</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A24">
+    <row r="24" spans="1:11">
+      <c r="A24" s="3">
         <v>19.71</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="3">
         <v>22.058</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A25">
+    <row r="25" spans="1:11">
+      <c r="A25" s="3">
         <v>16.004000000000001</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="3">
         <v>21.157</v>
       </c>
       <c r="D25" t="s">
@@ -5484,7 +6699,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11">
       <c r="A26">
         <f>AVERAGE(A2:A25)</f>
         <v>14.051125000000001</v>
@@ -5503,7 +6718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11">
       <c r="A27">
         <f>_xlfn.STDEV.S(A2:A25)</f>
         <v>3.559357957645187</v>
@@ -5522,7 +6737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11">
       <c r="A28" s="2">
         <f>MAX(A2:A27)</f>
         <v>22.327999999999999</v>
@@ -5541,7 +6756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11">
       <c r="A29" s="2">
         <f>MIN(A2:A27)</f>
         <v>3.559357957645187</v>
@@ -5560,7 +6775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11">
       <c r="D30" s="3">
         <v>-1.5</v>
       </c>
@@ -5571,7 +6786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11">
       <c r="D31" s="3">
         <v>-1</v>
       </c>
@@ -5582,7 +6797,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11">
       <c r="D32" s="3">
         <v>-0.5</v>
       </c>
@@ -5593,7 +6808,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="4:6">
       <c r="D33" s="3">
         <v>0</v>
       </c>
@@ -5604,7 +6819,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="4:6">
       <c r="D34" s="3">
         <v>0.5</v>
       </c>
@@ -5615,7 +6830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="4:6">
       <c r="D35">
         <v>1</v>
       </c>
@@ -5626,7 +6841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="4:6">
       <c r="D36">
         <v>1.5</v>
       </c>
@@ -5637,7 +6852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="4:6">
       <c r="D37">
         <v>2</v>
       </c>
@@ -5648,7 +6863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="4:6">
       <c r="D38">
         <v>2.5</v>
       </c>
@@ -5659,7 +6874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="4:6">
       <c r="D39">
         <v>3</v>
       </c>
@@ -5670,7 +6885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="4:6">
       <c r="D40">
         <v>3.5</v>
       </c>
@@ -5693,496 +6908,498 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20:H33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="2"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="2:8" ht="14" thickBot="1">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B2" s="6">
+    <row r="2" spans="2:8">
+      <c r="B2" s="5">
         <v>12.079000000000001</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>19.277999999999999</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>8</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>15</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B3" s="6">
+    <row r="3" spans="2:8">
+      <c r="B3" s="5">
         <v>16.791</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>18.741</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>10</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>17</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>8</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B4" s="6">
+    <row r="4" spans="2:8">
+      <c r="B4" s="5">
         <v>9.5640000000000001</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>21.213999999999999</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>12</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>19</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>10</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B5" s="6">
+    <row r="5" spans="2:8">
+      <c r="B5" s="5">
         <v>8.6300000000000008</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>15.686999999999999</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>14</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>21</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>12</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B6" s="6">
+    <row r="6" spans="2:8">
+      <c r="B6" s="5">
         <v>14.669</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>22.803000000000001</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>16</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>23</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>14</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B7" s="6">
+    <row r="7" spans="2:8">
+      <c r="B7" s="5">
         <v>12.238</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>20.878</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>18</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>25</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>16</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B8" s="6">
+    <row r="8" spans="2:8">
+      <c r="B8" s="5">
         <v>14.692</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>24.571999999999999</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>20</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>27</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>18</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="6">
+    <row r="9" spans="2:8">
+      <c r="B9" s="5">
         <v>8.9870000000000001</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>17.393999999999998</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>22</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>29</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>20</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="6">
+    <row r="10" spans="2:8">
+      <c r="B10" s="5">
         <v>9.4009999999999998</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>20.762</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>24</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>31</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>22</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="6">
+    <row r="11" spans="2:8">
+      <c r="B11" s="5">
         <v>14.48</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>26.282</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5">
         <v>33</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>24</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="6">
+    <row r="12" spans="2:8" ht="14" thickBot="1">
+      <c r="B12" s="5">
         <v>22.327999999999999</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>24.524000000000001</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5">
         <v>35</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B13" s="6">
+    <row r="13" spans="2:8">
+      <c r="B13" s="5">
         <v>15.298</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>18.643999999999998</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B14" s="6">
+    <row r="14" spans="2:8">
+      <c r="B14" s="5">
         <v>15.073</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>17.510000000000002</v>
       </c>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B15" s="6">
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="5">
         <v>16.928999999999998</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>20.329999999999998</v>
       </c>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B16" s="6">
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="5">
         <v>18.2</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>35.255000000000003</v>
       </c>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B17" s="6">
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="B17" s="5">
         <v>12.13</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>22.158000000000001</v>
       </c>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B18" s="6">
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="B18" s="5">
         <v>18.495000000000001</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>25.138999999999999</v>
       </c>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="6">
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" ht="14" thickBot="1">
+      <c r="B19" s="5">
         <v>10.638999999999999</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>20.428999999999998</v>
       </c>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="6">
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="B20" s="5">
         <v>11.343999999999999</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>17.425000000000001</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="G20" s="10" t="s">
+      <c r="D20" s="5"/>
+      <c r="G20" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="6">
+    <row r="21" spans="1:8">
+      <c r="B21" s="5">
         <v>12.369</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>34.287999999999997</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="G21" s="7">
+      <c r="D21" s="5"/>
+      <c r="G21" s="6">
         <v>15</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="6">
+    <row r="22" spans="1:8">
+      <c r="B22" s="5">
         <v>12.944000000000001</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>23.893999999999998</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="G22" s="7">
+      <c r="D22" s="5"/>
+      <c r="G22" s="6">
         <v>17</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="6">
+    <row r="23" spans="1:8">
+      <c r="B23" s="5">
         <v>14.233000000000001</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>17.96</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="G23" s="7">
+      <c r="D23" s="5"/>
+      <c r="G23" s="6">
         <v>19</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="6">
+    <row r="24" spans="1:8">
+      <c r="B24" s="5">
         <v>19.71</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>22.058</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="G24" s="7">
+      <c r="D24" s="5"/>
+      <c r="G24" s="6">
         <v>21</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B25" s="6">
+    <row r="25" spans="1:8">
+      <c r="B25" s="5">
         <v>16.004000000000001</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>21.157</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="G25" s="7">
+      <c r="D25" s="5"/>
+      <c r="G25" s="6">
         <v>23</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="G26" s="7">
+    <row r="26" spans="1:8">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="G26" s="6">
         <v>25</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="5">
         <f>MIN(B2:B25)</f>
         <v>8.6300000000000008</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <f>MIN(C2:C25)</f>
         <v>15.686999999999999</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="G27" s="7">
+      <c r="D27" s="5"/>
+      <c r="G27" s="6">
         <v>27</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8">
       <c r="A28" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="5">
         <f>MAX(B2:B25)</f>
         <v>22.327999999999999</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <f>MAX(C2:C25)</f>
         <v>35.255000000000003</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="G28" s="7">
+      <c r="D28" s="5"/>
+      <c r="G28" s="6">
         <v>29</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="G29" s="7">
+    <row r="29" spans="1:8">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="G29" s="6">
         <v>31</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H29" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="G30" s="7">
+    <row r="30" spans="1:8">
+      <c r="G30" s="6">
         <v>33</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H30" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="G31" s="7">
+    <row r="31" spans="1:8">
+      <c r="G31" s="6">
         <v>35</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H31" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="G32" s="7">
+    <row r="32" spans="1:8">
+      <c r="G32" s="6">
         <v>37</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H32" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="7:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G33" s="9" t="s">
+    <row r="33" spans="7:8" ht="14" thickBot="1">
+      <c r="G33" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" s="8">
         <v>0</v>
       </c>
     </row>
